--- a/hardware/led-bar-pcb/led-bar-pcb.xlsx
+++ b/hardware/led-bar-pcb/led-bar-pcb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Designators</t>
   </si>
@@ -46,16 +46,25 @@
     <t xml:space="preserve">SparkFun</t>
   </si>
   <si>
+    <t xml:space="preserve">NOTE - install on backside of PCB</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1-R10 </t>
   </si>
   <si>
-    <t xml:space="preserve">10K</t>
-  </si>
-  <si>
     <t xml:space="preserve">RC0402FR-0751RL</t>
   </si>
   <si>
     <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-28-4112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouser</t>
   </si>
 </sst>
 </file>
@@ -281,10 +290,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.33"/>
@@ -324,16 +333,19 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
+      <c r="C3" s="6" t="n">
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
@@ -344,12 +356,22 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
@@ -479,6 +501,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="10 Segment LED Bar"/>
     <hyperlink ref="D3" r:id="rId2" display="RC0402FR-0751RL"/>
+    <hyperlink ref="D4" r:id="rId3" display="22-28-4112"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
